--- a/NVDA_Model.xlsx
+++ b/NVDA_Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Desktop\Equity Research\Models\Technology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F10319-E476-4957-8E08-08EEF62C0029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F55062-F2BF-4BD7-85F2-ED559E1E333B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="1722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="1723">
   <si>
     <t xml:space="preserve">Price </t>
   </si>
@@ -5363,6 +5363,9 @@
   </si>
   <si>
     <t>Yea… Yea… I get that Singapore is in the datacenter space and serves S.E.A. but everyone knows whats going on … only the U.S. feds care</t>
+  </si>
+  <si>
+    <t>&lt;-- OpenAI's Auditors … we might be fucked LMAOOO … this sounds silly, but how are they going to get underwriters for an actual IPO if this little boutique is the one signing off on the books … And OEAI is targeting a trilly valuation … We'll see about that</t>
   </si>
 </sst>
 </file>
@@ -14638,6 +14641,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>7326</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>600807</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{977F9F52-18F5-180A-9FBA-1A71C2E53F50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14397403" y="3678115"/>
+          <a:ext cx="4850423" cy="2198077"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -16370,7 +16417,7 @@
   <dimension ref="B1:FB107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="CF71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="BS68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="CP94" sqref="CP94:CP100"/>
@@ -35430,8 +35477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{714FD4A5-C172-4508-BDD9-9132B91E029B}">
   <dimension ref="A1:CD1616"/>
   <sheetViews>
-    <sheetView topLeftCell="H141" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA179" sqref="AA179"/>
+    <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AO33" sqref="AO33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -35462,6 +35509,11 @@
     <row r="21" spans="41:41">
       <c r="AO21" s="1" t="s">
         <v>1719</v>
+      </c>
+    </row>
+    <row r="32" spans="41:41">
+      <c r="AO32" s="1" t="s">
+        <v>1722</v>
       </c>
     </row>
     <row r="34" spans="8:33">

--- a/NVDA_Model.xlsx
+++ b/NVDA_Model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Desktop\Equity Research\Models\Technology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F55062-F2BF-4BD7-85F2-ED559E1E333B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859D5FF4-F733-4D15-A7C8-BB63C9C062D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -5359,13 +5359,13 @@
     <t>Are we in a frothing bubble … tech traunches to monitor</t>
   </si>
   <si>
-    <t>Customers use Singapore to centralize invoicing while our products are almost always shipped elsewhere. Over 99% of controlled Data Center compute revenue billed to Singapore was for orders from U.S.-based customers</t>
-  </si>
-  <si>
     <t>Yea… Yea… I get that Singapore is in the datacenter space and serves S.E.A. but everyone knows whats going on … only the U.S. feds care</t>
   </si>
   <si>
     <t>&lt;-- OpenAI's Auditors … we might be fucked LMAOOO … this sounds silly, but how are they going to get underwriters for an actual IPO if this little boutique is the one signing off on the books … And OEAI is targeting a trilly valuation … We'll see about that</t>
+  </si>
+  <si>
+    <t>Customers use Singapore to centralize invoicing while products are almost always shipped elsewhere. Over 99% of controlled Data Center compute revenue billed to Singapore was for orders from U.S.-based customers</t>
   </si>
 </sst>
 </file>
@@ -14233,7 +14233,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>-1</xdr:colOff>
+      <xdr:colOff>2973</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>163285</xdr:rowOff>
     </xdr:to>
@@ -14650,7 +14650,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>600807</xdr:colOff>
+      <xdr:colOff>639177</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -14675,8 +14675,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14397403" y="3678115"/>
-          <a:ext cx="4850423" cy="2198077"/>
+          <a:off x="15429054" y="3402682"/>
+          <a:ext cx="5193824" cy="2030329"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15805,18 +15805,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:S98"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="1" customWidth="1"/>
-    <col min="2" max="4" width="11.5703125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="3.3984375" style="1" customWidth="1"/>
+    <col min="2" max="4" width="11.59765625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="15">
+    <row r="2" spans="2:19" ht="13.9">
       <c r="B2" s="2" t="s">
         <v>165</v>
       </c>
@@ -15884,7 +15884,7 @@
         <v>4649051.75</v>
       </c>
     </row>
-    <row r="10" spans="2:19" ht="15">
+    <row r="10" spans="2:19" ht="13.9">
       <c r="B10" s="2" t="s">
         <v>166</v>
       </c>
@@ -16009,15 +16009,15 @@
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="15">
+    <row r="20" spans="1:18" ht="13.9">
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:18" ht="15">
+    <row r="21" spans="1:18" ht="13.9">
       <c r="A21" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="15">
+    <row r="22" spans="1:18" ht="13.9">
       <c r="B22" s="1" t="s">
         <v>168</v>
       </c>
@@ -16027,7 +16027,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="15">
+    <row r="24" spans="1:18" ht="13.9">
       <c r="C24" s="1" t="s">
         <v>170</v>
       </c>
@@ -16042,7 +16042,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="15">
+    <row r="27" spans="1:18" ht="13.9">
       <c r="C27" s="2" t="s">
         <v>171</v>
       </c>
@@ -16087,7 +16087,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15">
+    <row r="37" spans="1:4" ht="13.9">
       <c r="A37" s="2" t="s">
         <v>163</v>
       </c>
@@ -16127,7 +16127,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15">
+    <row r="46" spans="1:4" ht="13.9">
       <c r="B46" s="2" t="s">
         <v>189</v>
       </c>
@@ -16192,7 +16192,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="59" spans="3:5" ht="15">
+    <row r="59" spans="3:5" ht="13.9">
       <c r="D59" s="1" t="s">
         <v>218</v>
       </c>
@@ -16237,7 +16237,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="68" spans="2:18" ht="15">
+    <row r="68" spans="2:18" ht="13.9">
       <c r="B68" s="2" t="s">
         <v>210</v>
       </c>
@@ -16305,7 +16305,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="81" spans="2:4" ht="15">
+    <row r="81" spans="2:4" ht="13.9">
       <c r="B81" s="2" t="s">
         <v>248</v>
       </c>
@@ -16355,7 +16355,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="91" spans="2:4" ht="15">
+    <row r="91" spans="2:4" ht="13.9">
       <c r="B91" s="2" t="s">
         <v>258</v>
       </c>
@@ -16416,30 +16416,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B27957-A42B-4AB7-A411-12A70E029F5D}">
   <dimension ref="B1:FB107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="BS68" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="42" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="BZ4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="CP94" sqref="CP94:CP100"/>
+      <selection pane="bottomRight" activeCell="DA77" sqref="DA77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" style="1" customWidth="1"/>
-    <col min="3" max="18" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="67" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="9.140625" style="1"/>
-    <col min="69" max="74" width="9.140625" style="35"/>
-    <col min="75" max="95" width="9.140625" style="1"/>
-    <col min="96" max="104" width="9.140625" style="35" customWidth="1"/>
-    <col min="105" max="105" width="9.7109375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="3.1328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.3984375" style="1" customWidth="1"/>
+    <col min="3" max="18" width="9.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="67" width="9.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="9.1328125" style="1"/>
+    <col min="69" max="74" width="9.1328125" style="35"/>
+    <col min="75" max="95" width="9.1328125" style="1"/>
+    <col min="96" max="104" width="9.1328125" style="35" customWidth="1"/>
+    <col min="105" max="105" width="9.73046875" style="35" customWidth="1"/>
     <col min="106" max="106" width="9" style="35" customWidth="1"/>
-    <col min="107" max="155" width="9.140625" style="35"/>
-    <col min="156" max="16384" width="9.140625" style="1"/>
+    <col min="107" max="155" width="9.1328125" style="35"/>
+    <col min="156" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:158" ht="15">
+    <row r="1" spans="2:158" ht="13.9">
       <c r="B1" s="1" t="s">
         <v>115</v>
       </c>
@@ -16475,7 +16475,7 @@
       </c>
       <c r="BW2" s="35"/>
     </row>
-    <row r="3" spans="2:158" ht="15">
+    <row r="3" spans="2:158" ht="13.9">
       <c r="B3" s="2" t="s">
         <v>1606</v>
       </c>
@@ -17181,7 +17181,7 @@
         <v>182830.70955253564</v>
       </c>
     </row>
-    <row r="6" spans="2:158" s="2" customFormat="1" ht="15">
+    <row r="6" spans="2:158" s="2" customFormat="1" ht="13.9">
       <c r="B6" s="33" t="s">
         <v>188</v>
       </c>
@@ -18110,7 +18110,7 @@
         <v>4600.4856090606345</v>
       </c>
     </row>
-    <row r="11" spans="2:158" s="2" customFormat="1" ht="15">
+    <row r="11" spans="2:158" s="2" customFormat="1" ht="13.9">
       <c r="B11" s="33" t="s">
         <v>118</v>
       </c>
@@ -18512,7 +18512,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="2:158" s="2" customFormat="1" ht="15">
+    <row r="15" spans="2:158" s="2" customFormat="1" ht="13.9">
       <c r="B15" s="33" t="s">
         <v>1533</v>
       </c>
@@ -19412,7 +19412,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="20" spans="2:155" s="2" customFormat="1" ht="15">
+    <row r="20" spans="2:155" s="2" customFormat="1" ht="13.9">
       <c r="B20" s="33" t="s">
         <v>1537</v>
       </c>
@@ -21107,7 +21107,7 @@
         <v>7875</v>
       </c>
     </row>
-    <row r="33" spans="2:155" s="2" customFormat="1" ht="15">
+    <row r="33" spans="2:155" s="2" customFormat="1" ht="13.9">
       <c r="B33" s="2" t="s">
         <v>118</v>
       </c>
@@ -21962,7 +21962,7 @@
         <v>1.3066783831282951</v>
       </c>
     </row>
-    <row r="40" spans="2:155" s="2" customFormat="1" ht="15">
+    <row r="40" spans="2:155" s="2" customFormat="1" ht="13.9">
       <c r="B40" s="2" t="s">
         <v>1555</v>
       </c>
@@ -22959,7 +22959,7 @@
     <row r="47" spans="2:155">
       <c r="BQ47" s="1"/>
     </row>
-    <row r="48" spans="2:155" s="2" customFormat="1" ht="15">
+    <row r="48" spans="2:155" s="2" customFormat="1" ht="13.9">
       <c r="B48" s="2" t="s">
         <v>117</v>
       </c>
@@ -27005,7 +27005,7 @@
         <v>365843.47033225169</v>
       </c>
     </row>
-    <row r="60" spans="2:155" s="2" customFormat="1" ht="15">
+    <row r="60" spans="2:155" s="2" customFormat="1" ht="13.9">
       <c r="B60" s="2" t="s">
         <v>138</v>
       </c>
@@ -30936,7 +30936,7 @@
         <v>1596</v>
       </c>
       <c r="DA75" s="66">
-        <v>4.3400000000000001E-2</v>
+        <v>3.9899999999999998E-2</v>
       </c>
       <c r="DB75" s="63"/>
     </row>
@@ -31035,8 +31035,8 @@
         <v>1597</v>
       </c>
       <c r="DA76" s="66">
-        <f>10.5%-DA75</f>
-        <v>6.1599999999999995E-2</v>
+        <f>10.25%-DA75</f>
+        <v>6.2599999999999989E-2</v>
       </c>
       <c r="DB76" s="63"/>
     </row>
@@ -31229,7 +31229,7 @@
       </c>
       <c r="DA78" s="66">
         <f>+DA75+(DA76*DA77)</f>
-        <v>0.17460799999999999</v>
+        <v>0.17323799999999995</v>
       </c>
       <c r="DB78" s="63"/>
     </row>
@@ -31418,7 +31418,7 @@
       </c>
       <c r="DA80" s="67">
         <f>NPV(DA78,CR60:EY60)</f>
-        <v>5331675.9655668689</v>
+        <v>5408490.6386470953</v>
       </c>
       <c r="DB80" s="63"/>
     </row>
@@ -31643,7 +31643,7 @@
       </c>
       <c r="DA82" s="70">
         <f>DA80/DA81</f>
-        <v>219.16701465724788</v>
+        <v>222.32460388239795</v>
       </c>
       <c r="DB82" s="75"/>
       <c r="DD82" s="34"/>
@@ -31808,7 +31808,7 @@
       </c>
       <c r="DA84" s="66">
         <f>DA82/DA83-1</f>
-        <v>0.13411133069727232</v>
+        <v>0.15045073160361166</v>
       </c>
       <c r="DB84" s="75" t="str">
         <f>IF(DA84&gt;0,"Upside","Downside")</f>
@@ -32248,7 +32248,7 @@
         <v>4245</v>
       </c>
     </row>
-    <row r="90" spans="2:155" s="2" customFormat="1" ht="15">
+    <row r="90" spans="2:155" s="2" customFormat="1" ht="13.9">
       <c r="B90" s="2" t="s">
         <v>1585</v>
       </c>
@@ -32500,7 +32500,7 @@
         <v>79327</v>
       </c>
     </row>
-    <row r="92" spans="2:155" s="2" customFormat="1" ht="15">
+    <row r="92" spans="2:155" s="2" customFormat="1" ht="13.9">
       <c r="B92" s="2" t="s">
         <v>1587</v>
       </c>
@@ -33747,7 +33747,7 @@
         <v>72880</v>
       </c>
     </row>
-    <row r="103" spans="2:155" s="2" customFormat="1" ht="15">
+    <row r="103" spans="2:155" s="2" customFormat="1" ht="13.9">
       <c r="B103" s="2" t="s">
         <v>139</v>
       </c>
@@ -34356,7 +34356,7 @@
         <v>-3236</v>
       </c>
     </row>
-    <row r="105" spans="2:155" s="2" customFormat="1" ht="15">
+    <row r="105" spans="2:155" s="2" customFormat="1" ht="13.9">
       <c r="B105" s="2" t="s">
         <v>141</v>
       </c>
@@ -35477,17 +35477,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{714FD4A5-C172-4508-BDD9-9132B91E029B}">
   <dimension ref="A1:CD1616"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AO33" sqref="AO33"/>
+    <sheetView topLeftCell="H1" zoomScale="43" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AQ27" sqref="AQ27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="7" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="3.140625" style="1" customWidth="1"/>
-    <col min="9" max="31" width="9.140625" style="1"/>
-    <col min="32" max="32" width="2.85546875" style="1" customWidth="1"/>
-    <col min="33" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="3.1328125" style="1" customWidth="1"/>
+    <col min="9" max="31" width="9.1328125" style="1"/>
+    <col min="32" max="32" width="2.86328125" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="8:82">
@@ -35495,7 +35495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="8:82" ht="15">
+    <row r="2" spans="8:82" ht="13.9">
       <c r="H2" s="2" t="s">
         <v>164</v>
       </c>
@@ -35503,7 +35503,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="4" spans="8:82" ht="15">
+    <row r="4" spans="8:82" ht="14.25">
       <c r="AG4"/>
     </row>
     <row r="21" spans="41:41">
@@ -35513,7 +35513,7 @@
     </row>
     <row r="32" spans="41:41">
       <c r="AO32" s="1" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="34" spans="8:33">
@@ -35534,7 +35534,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="8:33" ht="15">
+    <row r="37" spans="8:33" ht="13.9">
       <c r="H37" s="2" t="s">
         <v>13</v>
       </c>
@@ -35542,7 +35542,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="38" spans="8:33" ht="15">
+    <row r="38" spans="8:33" ht="13.9">
       <c r="AG38" s="2" t="s">
         <v>144</v>
       </c>
@@ -35565,7 +35565,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="8:10" ht="15">
+    <row r="69" spans="8:10" ht="13.9">
       <c r="H69" s="2" t="s">
         <v>1531</v>
       </c>
@@ -35598,7 +35598,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="8:11" ht="15">
+    <row r="107" spans="8:11" ht="13.9">
       <c r="H107" s="2" t="s">
         <v>1655</v>
       </c>
@@ -35613,12 +35613,12 @@
     </row>
     <row r="140" spans="9:11">
       <c r="K140" s="1" t="s">
-        <v>1720</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="141" spans="9:11">
       <c r="K141" s="1" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="142" spans="9:11">
@@ -35641,7 +35641,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="147" spans="8:33" ht="15">
+    <row r="147" spans="8:33" ht="13.9">
       <c r="H147" s="2" t="s">
         <v>273</v>
       </c>
@@ -35667,12 +35667,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="180" spans="8:10" ht="15">
+    <row r="180" spans="8:10" ht="13.9">
       <c r="H180" s="2" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" ht="13.9">
       <c r="A198" s="1" t="s">
         <v>1529</v>
       </c>
@@ -36814,7 +36814,7 @@
         <v>0.15613307715643643</v>
       </c>
     </row>
-    <row r="245" spans="1:33" ht="15">
+    <row r="245" spans="1:33" ht="13.9">
       <c r="A245" s="49">
         <v>122.99145595998885</v>
       </c>
@@ -36881,7 +36881,7 @@
         <v>1.1135857461024301E-3</v>
       </c>
     </row>
-    <row r="247" spans="1:33" ht="15">
+    <row r="247" spans="1:33" ht="13.9">
       <c r="A247" s="49">
         <v>117.36184704084465</v>
       </c>
@@ -36914,7 +36914,7 @@
       </c>
       <c r="M247" s="2"/>
     </row>
-    <row r="248" spans="1:33" ht="15">
+    <row r="248" spans="1:33" ht="13.9">
       <c r="A248" s="49">
         <v>117.05186857460403</v>
       </c>
@@ -36950,7 +36950,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="249" spans="1:33" ht="15">
+    <row r="249" spans="1:33" ht="13.9">
       <c r="A249" s="49">
         <v>113.53211308696858</v>
       </c>
@@ -37033,7 +37033,7 @@
         <v>2.8025923979679845E-3</v>
       </c>
     </row>
-    <row r="252" spans="1:33">
+    <row r="252" spans="1:33" ht="13.9">
       <c r="A252" s="49">
         <v>111.60224715198663</v>
       </c>
@@ -37063,7 +37063,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="253" spans="1:33" ht="15" thickBot="1">
+    <row r="253" spans="1:33" ht="13.9" thickBot="1">
       <c r="A253" s="49">
         <v>108.91243400944704</v>
       </c>
@@ -37138,7 +37138,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="255" spans="1:33" ht="15">
+    <row r="255" spans="1:33" ht="14.25">
       <c r="A255" s="49">
         <v>108.72244720755764</v>
       </c>
@@ -37185,7 +37185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:33" ht="15">
+    <row r="256" spans="1:33" ht="14.25">
       <c r="A256" s="49">
         <v>111.0022888302306</v>
       </c>
@@ -37229,7 +37229,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="257" spans="1:17" ht="15">
+    <row r="257" spans="1:17" ht="14.25">
       <c r="A257" s="49">
         <v>106.42260697415946</v>
       </c>
@@ -37276,7 +37276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:17" ht="15">
+    <row r="258" spans="1:17" ht="14.25">
       <c r="A258" s="49">
         <v>102.70286537927198</v>
       </c>
@@ -37321,7 +37321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:17" ht="15">
+    <row r="259" spans="1:17" ht="14.25">
       <c r="A259" s="49">
         <v>98.883130730758523</v>
       </c>
@@ -37368,7 +37368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:17" ht="15">
+    <row r="260" spans="1:17" ht="14.25">
       <c r="A260" s="49">
         <v>96.903268268963572</v>
       </c>
@@ -37414,7 +37414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:17" ht="15">
+    <row r="261" spans="1:17" ht="14.25">
       <c r="A261" s="49">
         <v>101.48295012503471</v>
       </c>
@@ -37462,7 +37462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:17" ht="15">
+    <row r="262" spans="1:17" ht="14.25">
       <c r="A262" s="49">
         <v>104.48274173381492</v>
       </c>
@@ -37507,7 +37507,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="263" spans="1:17" ht="15">
+    <row r="263" spans="1:17" ht="14.25">
       <c r="A263" s="49">
         <v>112.19220616838008</v>
       </c>
@@ -37555,7 +37555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:17" ht="15">
+    <row r="264" spans="1:17" ht="14.25">
       <c r="A264" s="49">
         <v>110.70230966935256</v>
       </c>
@@ -37600,7 +37600,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="265" spans="1:17" ht="15">
+    <row r="265" spans="1:17" ht="14.25">
       <c r="A265" s="49">
         <v>110.9222943873298</v>
       </c>
@@ -37648,7 +37648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:17" ht="15">
+    <row r="266" spans="1:17" ht="14.25">
       <c r="A266" s="49">
         <v>107.56252778549594</v>
       </c>
@@ -37693,7 +37693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:17" ht="15">
+    <row r="267" spans="1:17" ht="14.25">
       <c r="A267" s="49">
         <v>114.32205821061403</v>
       </c>
@@ -37741,7 +37741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:17" ht="15">
+    <row r="268" spans="1:17" ht="14.25">
       <c r="A268" s="49">
         <v>96.293310641844926</v>
       </c>
@@ -37787,7 +37787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:17" ht="15">
+    <row r="269" spans="1:17" ht="14.25">
       <c r="A269" s="49">
         <v>97.633217560433437</v>
       </c>
@@ -37825,7 +37825,7 @@
         <v>2.4587525271664981</v>
       </c>
     </row>
-    <row r="270" spans="1:17" ht="15">
+    <row r="270" spans="1:17" ht="14.25">
       <c r="A270" s="49">
         <v>94.30344887468739</v>
       </c>
@@ -37863,7 +37863,7 @@
         <v>2.9196448316534065</v>
       </c>
     </row>
-    <row r="271" spans="1:17" ht="15">
+    <row r="271" spans="1:17" ht="14.25">
       <c r="A271" s="49">
         <v>101.79292859127533</v>
       </c>
@@ -37901,7 +37901,7 @@
         <v>3.4371328374098877</v>
       </c>
     </row>
-    <row r="272" spans="1:17" ht="15">
+    <row r="272" spans="1:17" ht="14.25">
       <c r="A272" s="49">
         <v>110.41232981383715</v>
       </c>
@@ -37939,7 +37939,7 @@
         <v>4.0115637582132244</v>
       </c>
     </row>
-    <row r="273" spans="1:13" ht="15">
+    <row r="273" spans="1:13" ht="14.25">
       <c r="A273" s="49">
         <v>110.14234856904693</v>
       </c>
@@ -37977,7 +37977,7 @@
         <v>4.6417545319960221</v>
       </c>
     </row>
-    <row r="274" spans="1:13" ht="15">
+    <row r="274" spans="1:13" ht="14.25">
       <c r="A274" s="49">
         <v>108.37247151986659</v>
       </c>
@@ -38015,7 +38015,7 @@
         <v>5.3247807471385737</v>
       </c>
     </row>
-    <row r="275" spans="1:13" ht="15">
+    <row r="275" spans="1:13" ht="14.25">
       <c r="A275" s="49">
         <v>109.6623819116421</v>
       </c>
@@ -38053,7 +38053,7 @@
         <v>6.0558119237460186</v>
       </c>
     </row>
-    <row r="276" spans="1:13" ht="15">
+    <row r="276" spans="1:13" ht="14.25">
       <c r="A276" s="49">
         <v>111.42225965545983</v>
       </c>
@@ -38091,7 +38091,7 @@
         <v>6.8280094952152028</v>
       </c>
     </row>
-    <row r="277" spans="1:13" ht="15">
+    <row r="277" spans="1:13" ht="14.25">
       <c r="A277" s="49">
         <v>113.75209780494579</v>
       </c>
@@ -38129,7 +38129,7 @@
         <v>7.6325022832674865</v>
       </c>
     </row>
-    <row r="278" spans="1:13" ht="15">
+    <row r="278" spans="1:13" ht="14.25">
       <c r="A278" s="49">
         <v>120.68161642122809</v>
       </c>
@@ -38167,7 +38167,7 @@
         <v>8.4584513991785624</v>
       </c>
     </row>
-    <row r="279" spans="1:13" ht="15">
+    <row r="279" spans="1:13" ht="14.25">
       <c r="A279" s="49">
         <v>121.40156640733534</v>
       </c>
@@ -38205,7 +38205,7 @@
         <v>9.2932123847651589</v>
       </c>
     </row>
-    <row r="280" spans="1:13" ht="15">
+    <row r="280" spans="1:13" ht="14.25">
       <c r="A280" s="49">
         <v>117.69182411781048</v>
       </c>
@@ -38243,7 +38243,7 @@
         <v>10.122597199307945</v>
       </c>
     </row>
-    <row r="281" spans="1:13" ht="15">
+    <row r="281" spans="1:13" ht="14.25">
       <c r="A281" s="49">
         <v>118.52176646290634</v>
       </c>
@@ -38281,7 +38281,7 @@
         <v>10.93123265336709</v>
       </c>
     </row>
-    <row r="282" spans="1:13" ht="15">
+    <row r="282" spans="1:13" ht="14.25">
       <c r="A282" s="49">
         <v>117.51183662128366</v>
       </c>
@@ -38319,7 +38319,7 @@
         <v>11.703005483437979</v>
       </c>
     </row>
-    <row r="283" spans="1:13" ht="15">
+    <row r="283" spans="1:13" ht="14.25">
       <c r="A283" s="49">
         <v>115.42198180050012</v>
       </c>
@@ -38357,7 +38357,7 @@
         <v>12.421577927161115</v>
       </c>
     </row>
-    <row r="284" spans="1:13" ht="15">
+    <row r="284" spans="1:13" ht="14.25">
       <c r="A284" s="49">
         <v>119.52169699916641</v>
       </c>
@@ -38395,7 +38395,7 @@
         <v>13.070951911898533</v>
       </c>
     </row>
-    <row r="285" spans="1:13" ht="15">
+    <row r="285" spans="1:13" ht="14.25">
       <c r="A285" s="49">
         <v>121.66154834676296</v>
       </c>
@@ -38433,7 +38433,7 @@
         <v>13.63605531793295</v>
       </c>
     </row>
-    <row r="286" spans="1:13" ht="15">
+    <row r="286" spans="1:13" ht="14.25">
       <c r="A286" s="49">
         <v>115.57197138093912</v>
       </c>
@@ -38471,7 +38471,7 @@
         <v>14.103320672840823</v>
       </c>
     </row>
-    <row r="287" spans="1:13" ht="15">
+    <row r="287" spans="1:13" ht="14.25">
       <c r="A287" s="49">
         <v>115.73196026674073</v>
       </c>
@@ -38509,7 +38509,7 @@
         <v>14.461225422795078</v>
       </c>
     </row>
-    <row r="288" spans="1:13" ht="15">
+    <row r="288" spans="1:13" ht="14.25">
       <c r="A288" s="49">
         <v>108.74244581828279</v>
       </c>
@@ -38547,7 +38547,7 @@
         <v>14.700763811971989</v>
       </c>
     </row>
-    <row r="289" spans="1:13" ht="15">
+    <row r="289" spans="1:13" ht="14.25">
       <c r="A289" s="49">
         <v>106.96273311548265</v>
       </c>
@@ -38585,7 +38585,7 @@
         <v>14.81582341284042</v>
       </c>
     </row>
-    <row r="290" spans="1:13" ht="15">
+    <row r="290" spans="1:13" ht="14.25">
       <c r="A290" s="49">
         <v>112.67181150480219</v>
       </c>
@@ -38623,7 +38623,7 @@
         <v>14.8034443345085</v>
       </c>
     </row>
-    <row r="291" spans="1:13" ht="15">
+    <row r="291" spans="1:13" ht="14.25">
       <c r="A291" s="49">
         <v>110.55215367899528</v>
       </c>
@@ -38661,7 +38661,7 @@
         <v>14.663945764292501</v>
       </c>
     </row>
-    <row r="292" spans="1:13" ht="15">
+    <row r="292" spans="1:13" ht="14.25">
       <c r="A292" s="49">
         <v>117.28106743733514</v>
       </c>
@@ -38699,7 +38699,7 @@
         <v>14.400912290249785</v>
       </c>
     </row>
-    <row r="293" spans="1:13" ht="15">
+    <row r="293" spans="1:13" ht="14.25">
       <c r="A293" s="49">
         <v>115.971278875162</v>
       </c>
@@ -38737,7 +38737,7 @@
         <v>14.021040822857749</v>
       </c>
     </row>
-    <row r="294" spans="1:13" ht="15">
+    <row r="294" spans="1:13" ht="14.25">
       <c r="A294" s="49">
         <v>114.04159038280007</v>
       </c>
@@ -38775,7 +38775,7 @@
         <v>13.533857241713354</v>
       </c>
     </row>
-    <row r="295" spans="1:13" ht="15">
+    <row r="295" spans="1:13" ht="14.25">
       <c r="A295" s="49">
         <v>124.89983754707508</v>
       </c>
@@ -38813,7 +38813,7 @@
         <v>12.951319503326856</v>
       </c>
     </row>
-    <row r="296" spans="1:13" ht="15">
+    <row r="296" spans="1:13" ht="14.25">
       <c r="A296" s="49">
         <v>120.13060743900954</v>
       </c>
@@ -38851,7 +38851,7 @@
         <v>12.287330289013523</v>
       </c>
     </row>
-    <row r="297" spans="1:13" ht="15">
+    <row r="297" spans="1:13" ht="14.25">
       <c r="A297" s="49">
         <v>131.2588110244958</v>
       </c>
@@ -38889,7 +38889,7 @@
         <v>11.557186894718265</v>
       </c>
     </row>
-    <row r="298" spans="1:13" ht="15">
+    <row r="298" spans="1:13" ht="14.25">
       <c r="A298" s="49">
         <v>126.60956154807971</v>
       </c>
@@ -38927,7 +38927,7 @@
         <v>10.776998670711615</v>
       </c>
     </row>
-    <row r="299" spans="1:13" ht="15">
+    <row r="299" spans="1:13" ht="14.25">
       <c r="A299" s="49">
         <v>130.25897242741709</v>
       </c>
@@ -38965,7 +38965,7 @@
         <v>9.9631027905899181</v>
       </c>
     </row>
-    <row r="300" spans="1:13" ht="15">
+    <row r="300" spans="1:13" ht="14.25">
       <c r="A300" s="49">
         <v>134.40830260529381</v>
       </c>
@@ -39003,7 +39003,7 @@
         <v>9.1315075306601106</v>
       </c>
     </row>
-    <row r="301" spans="1:13" ht="15">
+    <row r="301" spans="1:13" ht="14.25">
       <c r="A301" s="49">
         <v>140.087385836701</v>
       </c>
@@ -39041,7 +39041,7 @@
         <v>8.2973888055407734</v>
       </c>
     </row>
-    <row r="302" spans="1:13" ht="15">
+    <row r="302" spans="1:13" ht="14.25">
       <c r="A302" s="49">
         <v>139.20752787127171</v>
       </c>
@@ -39079,7 +39079,7 @@
         <v>7.474660804413527</v>
       </c>
     </row>
-    <row r="303" spans="1:13" ht="15">
+    <row r="303" spans="1:13" ht="14.25">
       <c r="A303" s="49">
         <v>139.37750043277512</v>
       </c>
@@ -39117,7 +39117,7 @@
         <v>6.6756356711474174</v>
       </c>
     </row>
-    <row r="304" spans="1:13" ht="15">
+    <row r="304" spans="1:13" ht="14.25">
       <c r="A304" s="49">
         <v>138.82758920438181</v>
       </c>
@@ -39155,7 +39155,7 @@
         <v>5.9107807836421182</v>
       </c>
     </row>
-    <row r="305" spans="1:13" ht="15">
+    <row r="305" spans="1:13" ht="14.25">
       <c r="A305" s="49">
         <v>135.2681637987815</v>
       </c>
@@ -39193,7 +39193,7 @@
         <v>5.1885758234463175</v>
       </c>
     </row>
-    <row r="306" spans="1:13" ht="15">
+    <row r="306" spans="1:13" ht="14.25">
       <c r="A306" s="49">
         <v>131.11883362090478</v>
       </c>
@@ -39231,7 +39231,7 @@
         <v>4.5154659480553212</v>
       </c>
     </row>
-    <row r="307" spans="1:13" ht="15">
+    <row r="307" spans="1:13" ht="14.25">
       <c r="A307" s="49">
         <v>132.77856569205548</v>
       </c>
@@ -39269,7 +39269,7 @@
         <v>3.8959023625956886</v>
       </c>
     </row>
-    <row r="308" spans="1:13" ht="15">
+    <row r="308" spans="1:13" ht="14.25">
       <c r="A308" s="49">
         <v>133.5484414118061</v>
       </c>
@@ -39307,7 +39307,7 @@
         <v>3.3324577027114159</v>
       </c>
     </row>
-    <row r="309" spans="1:13" ht="15">
+    <row r="309" spans="1:13" ht="14.25">
       <c r="A309" s="49">
         <v>129.81904344470243</v>
       </c>
@@ -39345,7 +39345,7 @@
         <v>2.8260010331662024</v>
       </c>
     </row>
-    <row r="310" spans="1:13" ht="15">
+    <row r="310" spans="1:13" ht="14.25">
       <c r="A310" s="49">
         <v>128.65923067209113</v>
       </c>
@@ -39383,7 +39383,7 @@
         <v>2.3759159640415612</v>
       </c>
     </row>
-    <row r="311" spans="1:13" ht="15">
+    <row r="311" spans="1:13" ht="14.25">
       <c r="A311" s="49">
         <v>124.80985207333799</v>
       </c>
@@ -39421,7 +39421,7 @@
         <v>1.9803453083965132</v>
       </c>
     </row>
-    <row r="312" spans="1:13" ht="15">
+    <row r="312" spans="1:13" ht="14.25">
       <c r="A312" s="49">
         <v>118.63084954339143</v>
       </c>
@@ -39459,7 +39459,7 @@
         <v>1.6364466858625928</v>
       </c>
     </row>
-    <row r="313" spans="1:13" ht="15">
+    <row r="313" spans="1:13" ht="14.25">
       <c r="A313" s="49">
         <v>116.64117073520475</v>
       </c>
@@ -39497,7 +39497,7 @@
         <v>1.3406452903428223</v>
       </c>
     </row>
-    <row r="314" spans="1:13" ht="15">
+    <row r="314" spans="1:13" ht="14.25">
       <c r="A314" s="49">
         <v>120.05062035124323</v>
       </c>
@@ -39535,7 +39535,7 @@
         <v>1.088872429933041</v>
       </c>
     </row>
-    <row r="315" spans="1:13" ht="15">
+    <row r="315" spans="1:13" ht="14.25">
       <c r="A315" s="49">
         <v>124.62988112586383</v>
       </c>
@@ -39573,7 +39573,7 @@
         <v>0.87678115217937347</v>
       </c>
     </row>
-    <row r="316" spans="1:13" ht="15">
+    <row r="316" spans="1:13" ht="14.25">
       <c r="A316" s="49">
         <v>123.68003445863903</v>
       </c>
@@ -39611,7 +39611,7 @@
         <v>0.69993304531485256</v>
       </c>
     </row>
-    <row r="317" spans="1:13" ht="15">
+    <row r="317" spans="1:13" ht="14.25">
       <c r="A317" s="49">
         <v>128.96918063718553</v>
       </c>
@@ -39649,7 +39649,7 @@
         <v>0.55395294989054411</v>
       </c>
     </row>
-    <row r="318" spans="1:13" ht="15">
+    <row r="318" spans="1:13" ht="14.25">
       <c r="A318" s="49">
         <v>118.40088666606333</v>
       </c>
@@ -39687,7 +39687,7 @@
         <v>0.4346506663069043</v>
       </c>
     </row>
-    <row r="319" spans="1:13" ht="15">
+    <row r="319" spans="1:13" ht="14.25">
       <c r="A319" s="49">
         <v>142.59698071536863</v>
       </c>
@@ -39725,7 +39725,7 @@
         <v>0.33811069537463323</v>
       </c>
     </row>
-    <row r="320" spans="1:13" ht="15">
+    <row r="320" spans="1:13" ht="14.25">
       <c r="A320" s="49">
         <v>147.19623826193077</v>
       </c>
@@ -39762,7 +39762,7 @@
         <v>0.26075254563547801</v>
       </c>
     </row>
-    <row r="321" spans="1:13" ht="15">
+    <row r="321" spans="1:13" ht="14.25">
       <c r="A321" s="49">
         <v>147.04626247236897</v>
       </c>
@@ -39799,7 +39799,7 @@
         <v>0.19936517300174683</v>
       </c>
     </row>
-    <row r="322" spans="1:13" ht="15.75" thickBot="1">
+    <row r="322" spans="1:13" ht="14.65" thickBot="1">
       <c r="A322" s="49">
         <v>140.8072696265977</v>
       </c>
@@ -67514,10 +67514,10 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -67532,20 +67532,20 @@
       <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.265625" style="1" customWidth="1"/>
     <col min="3" max="3" width="79" style="1" customWidth="1"/>
-    <col min="4" max="4" width="101.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="101.1328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1328125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="9.1328125" style="1"/>
+    <col min="9" max="9" width="13.73046875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="15" spans="2:6" ht="15">
+    <row r="15" spans="2:6" ht="13.9">
       <c r="B15" s="86" t="s">
         <v>1649</v>
       </c>
@@ -68177,10 +68177,10 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -68195,13 +68195,13 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="3.1328125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:26" ht="15">
+    <row r="2" spans="2:26" ht="13.9">
       <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
@@ -68232,7 +68232,7 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="6"/>
     </row>
-    <row r="3" spans="2:26" ht="15">
+    <row r="3" spans="2:26" ht="13.9">
       <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
@@ -68263,7 +68263,7 @@
       <c r="Y3" s="10"/>
       <c r="Z3" s="11"/>
     </row>
-    <row r="4" spans="2:26" ht="15">
+    <row r="4" spans="2:26" ht="13.9">
       <c r="B4" s="12" t="s">
         <v>10</v>
       </c>
@@ -68294,7 +68294,7 @@
       <c r="Y4" s="15"/>
       <c r="Z4" s="16"/>
     </row>
-    <row r="5" spans="2:26" ht="15">
+    <row r="5" spans="2:26" ht="13.9">
       <c r="B5" s="12" t="s">
         <v>10</v>
       </c>
@@ -68325,7 +68325,7 @@
       <c r="Y5" s="17"/>
       <c r="Z5" s="18"/>
     </row>
-    <row r="6" spans="2:26" ht="15">
+    <row r="6" spans="2:26" ht="13.9">
       <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
@@ -68356,7 +68356,7 @@
       <c r="Y6" s="15"/>
       <c r="Z6" s="16"/>
     </row>
-    <row r="7" spans="2:26" ht="15">
+    <row r="7" spans="2:26" ht="13.9">
       <c r="B7" s="12" t="s">
         <v>10</v>
       </c>
@@ -68387,7 +68387,7 @@
       <c r="Y7" s="17"/>
       <c r="Z7" s="18"/>
     </row>
-    <row r="8" spans="2:26" ht="15">
+    <row r="8" spans="2:26" ht="13.9">
       <c r="B8" s="19" t="s">
         <v>10</v>
       </c>
